--- a/WebRoot/template/【模板】销售提成.xlsx
+++ b/WebRoot/template/【模板】销售提成.xlsx
@@ -38,15 +38,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>身份证号(Y)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>员工姓名</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>销售提成(Y)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工编号(Y)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -250,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -296,13 +296,22 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,20 +596,20 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
     <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
@@ -611,454 +620,454 @@
       <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>4</v>
+      <c r="C2" s="17" t="s">
+        <v>5</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="15"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="15"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="15"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="15"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="15"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="15"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="15"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="15"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="15"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="15"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="15"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="15"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="15"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="15"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="15"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="15"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="15"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="15"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="15"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="8"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="15"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="8"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="15"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="8"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="15"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="8"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="15"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="8"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="15"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="15"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="15"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="15"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="9"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="15"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="15"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="9"/>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="15"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="7"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="15"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="11"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="15"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="7"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="15"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="11"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="15"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="11"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="15"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="11"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="15"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="11"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="15"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="11"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="15"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="11"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="15"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="11"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="15"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="11"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="15"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="11"/>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="15"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="11"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="15"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="11"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="15"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="11"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="15"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="11"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="15"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="11"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="15"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="11"/>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="15"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="11"/>
       <c r="E71" s="5"/>
     </row>
     <row r="72" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="15"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="11"/>
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="15"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="11"/>
       <c r="E73" s="5"/>
     </row>
     <row r="74" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="15"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="11"/>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="15"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="11"/>
       <c r="E75" s="4"/>
     </row>
   </sheetData>
